--- a/2 course/lab411/lab411.xlsx
+++ b/2 course/lab411/lab411.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kekoveca/Documents/MIPT/physics/2 course/lab411/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Physics_labs\2 course\lab411\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195FB621-C76D-6246-B27A-02CC03ED2E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130B555A-8F87-4067-895B-B3A36BDD5492}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4B615A12-685A-F04D-8E2C-8BBDE5250D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Пункт 1</t>
   </si>
@@ -93,6 +85,42 @@
   </si>
   <si>
     <t>f2</t>
+  </si>
+  <si>
+    <t>Линза, №</t>
+  </si>
+  <si>
+    <t>Форм. тонк. л.</t>
+  </si>
+  <si>
+    <t>Зрит. Труба</t>
+  </si>
+  <si>
+    <t>Мет. Бесселя</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>f, см</t>
+  </si>
+  <si>
+    <t>$8,9 \pm 0,5$</t>
+  </si>
+  <si>
+    <t>$9,15 \pm 0,3$</t>
+  </si>
+  <si>
+    <t>$9,3 \pm 0,2$</t>
+  </si>
+  <si>
+    <t>$8,1 \pm 0,2$</t>
+  </si>
+  <si>
+    <t>$7,23 \pm 0,6$</t>
+  </si>
+  <si>
+    <t>$7,7 \pm 0,2$</t>
   </si>
 </sst>
 </file>
@@ -142,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,10 +181,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,56 +507,61 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="7" width="10.875" style="1"/>
+    <col min="8" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
@@ -533,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -562,6 +598,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="1">
+        <f>17</f>
         <v>17</v>
       </c>
       <c r="M3" s="1">
@@ -572,15 +609,15 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>16.399999999999999</v>
       </c>
       <c r="B4" s="1">
         <v>11.9</v>
       </c>
-      <c r="C4" s="5">
-        <f>A4*B4/(A4+B4)</f>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C9" si="0">A4*B4/(A4+B4)</f>
         <v>6.8961130742049477</v>
       </c>
       <c r="D4" s="1">
@@ -610,22 +647,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>26.7</v>
       </c>
       <c r="B5" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C5" s="5">
-        <f>A5*B5/(A5+B5)</f>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
         <v>6.8423398328690803</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="1">
         <v>37.1</v>
       </c>
@@ -633,36 +670,36 @@
         <v>17.5</v>
       </c>
       <c r="I5" s="1">
-        <v>19.600000000000001</v>
+        <v>21.6</v>
       </c>
       <c r="J5" s="1">
         <f>H5-I5</f>
-        <v>-2.1000000000000014</v>
+        <v>-4.1000000000000014</v>
       </c>
       <c r="K5" s="1">
         <f>(G5^2 - J5^2)/(4*G5)</f>
-        <v>9.2452830188679247</v>
+        <v>9.1617250673854453</v>
       </c>
       <c r="L5" s="1">
-        <v>6.95</v>
+        <v>9.19</v>
       </c>
       <c r="M5" s="1">
         <v>34.799999999999997</v>
       </c>
       <c r="N5" s="1">
         <f>M5/L5</f>
-        <v>5.0071942446043156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.7867247007616975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>19.2</v>
       </c>
       <c r="B6" s="1">
         <v>10.9</v>
       </c>
-      <c r="C6" s="5">
-        <f>A6*B6/(A6+B6)</f>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
         <v>6.9528239202657804</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -670,50 +707,60 @@
       </c>
       <c r="K6" s="1">
         <f>AVERAGE(K4:K5)</f>
-        <v>9.2081337374132364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9.1663547616719967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>17.8</v>
       </c>
       <c r="B7" s="1">
         <v>11.5</v>
       </c>
-      <c r="C7" s="5">
-        <f>A7*B7/(A7+B7)</f>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
         <v>6.9863481228668949</v>
       </c>
       <c r="D7" s="1">
         <v>7.7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>19.8</v>
       </c>
       <c r="B8" s="1">
         <v>10.9</v>
       </c>
-      <c r="C8" s="5">
-        <f>A8*B8/(A8+B8)</f>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
         <v>7.0299674267100976</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>23.8</v>
       </c>
       <c r="B9" s="1">
         <v>9.9</v>
       </c>
-      <c r="C9" s="5">
-        <f>A9*B9/(A9+B9)</f>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
         <v>6.9916913946587531</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -722,12 +769,20 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1">
         <f>AVERAGE(C4:C9)</f>
         <v>6.949880628595924</v>
@@ -742,15 +797,39 @@
         <f>E10-D10</f>
         <v>8.1000000000000014</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,98 +839,111 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>20.75</v>
       </c>
       <c r="B13" s="1">
         <v>16.5</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f>A13*B13/(A13+B13)</f>
         <v>9.1912751677852356</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>15.3</v>
       </c>
       <c r="B14" s="1">
         <v>22.9</v>
       </c>
-      <c r="C14" s="5">
-        <f t="shared" ref="C14:C18" si="0">A14*B14/(A14+B14)</f>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:C18" si="1">A14*B14/(A14+B14)</f>
         <v>9.1719895287958106</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>25.9</v>
       </c>
       <c r="B15" s="1">
         <v>14.3</v>
       </c>
-      <c r="C15" s="5">
-        <f t="shared" si="0"/>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
         <v>9.213184079601989</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>26.5</v>
       </c>
       <c r="B16" s="1">
         <v>14.1</v>
       </c>
-      <c r="C16" s="5">
-        <f t="shared" si="0"/>
+      <c r="C16" s="4">
+        <f t="shared" si="1"/>
         <v>9.2032019704433488</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>18.5</v>
       </c>
       <c r="B17" s="1">
         <v>18.3</v>
       </c>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
         <v>9.1997282608695663</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>12.9</v>
       </c>
       <c r="B18" s="1">
         <v>31.9</v>
       </c>
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
         <v>9.1854910714285722</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="4">
         <f>AVERAGE(C13:C18)</f>
         <v>9.1941450131540865</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="D5:F5"/>
+  <mergeCells count="12">
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
